--- a/01_doc/Comparaison des temps d'exécutions au sein de la boucle de auto mode.xlsx
+++ b/01_doc/Comparaison des temps d'exécutions au sein de la boucle de auto mode.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Stage_1DOF_DroneBench\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{453634A8-E0BA-4FE3-ADA0-C38FD3CCAA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E90C0-C9B3-47FB-8999-B107964CFF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42F1FBAE-4704-47C6-9EC6-A37202DDD779}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{42F1FBAE-4704-47C6-9EC6-A37202DDD779}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HAL UART RECEIVE cditions</t>
   </si>
@@ -85,15 +87,55 @@
   <si>
     <t>kp ki kd par défaut</t>
   </si>
+  <si>
+    <t>Transmit</t>
+  </si>
+  <si>
+    <t>printf</t>
+  </si>
+  <si>
+    <t>OREFLAG</t>
+  </si>
+  <si>
+    <t>Angle (deg)</t>
+  </si>
+  <si>
+    <t>Temps (s) - 5</t>
+  </si>
+  <si>
+    <t>Temps (s) - 10</t>
+  </si>
+  <si>
+    <t>Temps (s) - 15</t>
+  </si>
+  <si>
+    <t>plus stable</t>
+  </si>
+  <si>
+    <t>moins stable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,6 +247,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -219,6 +267,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -234,6 +287,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -249,6 +307,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -264,6 +327,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -279,6 +347,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -296,6 +369,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -313,6 +391,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -330,6 +413,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -347,6 +435,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -364,6 +457,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-646A-4B0C-94F3-45764436209C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -475,6 +573,638 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps allumage moteur</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1106399182789132"/>
+          <c:y val="0.13930555555555557"/>
+          <c:w val="0.66268585367272304"/>
+          <c:h val="0.73937481773111691"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Valeur 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil3!$A$5:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil3!$D$5:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>46.497638500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.576535700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.567838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0814266999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1729051999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0308564000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3028884999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7373397000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3064217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B497-43F7-BC7C-1E7A39822233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Valeur 10 (init)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil3!$A$5:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil3!$G$5:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82.403256600000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.842500699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.067305300000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.7957704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.034725099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9505745999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5920167000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6874361999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2120287000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B497-43F7-BC7C-1E7A39822233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="345150576"/>
+        <c:axId val="345143920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="345150576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Angle consigne (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345143920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="345143920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345150576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -588,6 +1318,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1088,6 +1858,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1128,6 +2414,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A7947C-6C88-A8CE-6A40-FD5C1CC2C76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A4577C-0EAB-E92F-DE9E-3229DAFECF78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949861EA-E65B-4FA2-BB9E-0FB2D8D9864F}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,4 +2911,288 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F68CB93-75D2-4D3F-8AD5-CB7DDF9EBC39}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>110015</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>898</v>
+      </c>
+      <c r="D4">
+        <f>C4/C2*100</f>
+        <v>0.81625232922783264</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>2819</v>
+      </c>
+      <c r="D5">
+        <f>C5/C2*100</f>
+        <v>2.5623778575648775</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>C6/C2*100</f>
+        <v>9.0896695905103855E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ADD59F-C9B3-4ABB-AC02-AD4B4B51F911}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>464976385</v>
+      </c>
+      <c r="D5">
+        <f>C5/10000000</f>
+        <v>46.497638500000001</v>
+      </c>
+      <c r="F5">
+        <v>824032566</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="0">F5/10000000</f>
+        <v>82.403256600000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>175765357</v>
+      </c>
+      <c r="D6">
+        <f>C6/10000000</f>
+        <v>17.576535700000001</v>
+      </c>
+      <c r="F6">
+        <v>308425007</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>30.842500699999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>105678380</v>
+      </c>
+      <c r="D7">
+        <f>C7/10000000</f>
+        <v>10.567838</v>
+      </c>
+      <c r="F7">
+        <v>190673053</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>19.067305300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>80814267</v>
+      </c>
+      <c r="D8">
+        <f>C8/10000000</f>
+        <v>8.0814266999999997</v>
+      </c>
+      <c r="F8">
+        <v>137957704</v>
+      </c>
+      <c r="G8">
+        <f>F8/10000000</f>
+        <v>13.7957704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>61729052</v>
+      </c>
+      <c r="D9">
+        <f>C9/10000000</f>
+        <v>6.1729051999999998</v>
+      </c>
+      <c r="F9">
+        <v>110347251</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G13" si="1">F9/10000000</f>
+        <v>11.034725099999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>50308564</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D13" si="2">C10/10000000</f>
+        <v>5.0308564000000002</v>
+      </c>
+      <c r="F10">
+        <v>89505746</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8.9505745999999995</v>
+      </c>
+      <c r="I10">
+        <v>129958484</v>
+      </c>
+      <c r="J10">
+        <f>I10/10000000</f>
+        <v>12.9958484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>43028885</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>4.3028884999999999</v>
+      </c>
+      <c r="F11">
+        <v>75920167</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>7.5920167000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>37373397</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>3.7373397000000002</v>
+      </c>
+      <c r="F12">
+        <v>66874362</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>6.6874361999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>33064217</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>3.3064217</v>
+      </c>
+      <c r="F13">
+        <v>62120287</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>6.2120287000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/01_doc/Comparaison des temps d'exécutions au sein de la boucle de auto mode.xlsx
+++ b/01_doc/Comparaison des temps d'exécutions au sein de la boucle de auto mode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Stage_1DOF_DroneBench\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E90C0-C9B3-47FB-8999-B107964CFF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74206178-5B56-479F-AFF5-8E3226E56D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{42F1FBAE-4704-47C6-9EC6-A37202DDD779}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42F1FBAE-4704-47C6-9EC6-A37202DDD779}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2772,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949861EA-E65B-4FA2-BB9E-0FB2D8D9864F}">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2905,6 +2904,12 @@
       <c r="C18">
         <f>C16/C13</f>
         <v>1210.612266262671</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f>7250/10000</f>
+        <v>0.72499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ADD59F-C9B3-4ABB-AC02-AD4B4B51F911}">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
